--- a/resources/test1.xlsx
+++ b/resources/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra\PycharmProjects\appServer\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4EC8E2-451F-41D0-8528-1F237CE01326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBE1DB8-C7CC-4FEC-833D-BCF723939547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4DEF2926-EF63-4B44-94E7-5ACEB1D925E5}"/>
+    <workbookView xWindow="48" yWindow="768" windowWidth="22992" windowHeight="6348" xr2:uid="{4DEF2926-EF63-4B44-94E7-5ACEB1D925E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tari" sheetId="2" r:id="rId1"/>
@@ -522,10 +522,15 @@
   <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="31.77734375" customWidth="1"/>
+    <col min="19" max="19" width="28.33203125" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
